--- a/WebRoot/docs/人员考勤模板-计件.xlsx
+++ b/WebRoot/docs/人员考勤模板-计件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>应到人数</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银川</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银川</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,6 +299,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,32 +631,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
@@ -637,44 +664,50 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="10" t="s">
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="4"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="4"/>
     </row>
-    <row r="2" spans="1:39" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
+    <row r="2" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
@@ -702,7 +735,7 @@
       <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
@@ -734,58 +767,76 @@
         <v>11</v>
       </c>
       <c r="X2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="N1:U1"/>
-    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
